--- a/data.xlsx
+++ b/data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Study\python_study\pytest_demo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53AB6BCA-A994-4149-838F-C3F07F112C6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{630DC271-F5E6-45EC-808E-0B569E8FF93C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="14020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="2">
   <si>
     <t>wxae4d2a32bee4a05b</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -358,10 +358,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -391,22 +391,6 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>225</v>
-      </c>
-      <c r="C3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>225</v>
-      </c>
-      <c r="B4" t="s">
-        <v>0</v>
-      </c>
-    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
